--- a/Metadata/Processed/20211108MetadataPractice.xlsx
+++ b/Metadata/Processed/20211108MetadataPractice.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/victoriamarland/Documents/GitHub/GcMsDataProcess/Metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4EF549DC-C348-F246-9B51-7C29836CF483}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D0E1300-2525-B74B-AF32-5E8FF804B997}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1960" windowWidth="28800" windowHeight="12440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="64">
   <si>
     <t>MeOH BLK</t>
   </si>
@@ -129,9 +129,6 @@
     <t>FL21/0694</t>
   </si>
   <si>
-    <t>FL21/0653</t>
-  </si>
-  <si>
     <t>SampleName</t>
   </si>
   <si>
@@ -183,9 +180,6 @@
     <t>Volume</t>
   </si>
   <si>
-    <t>Sample Type</t>
-  </si>
-  <si>
     <t>Check Standard</t>
   </si>
   <si>
@@ -205,16 +199,41 @@
   </si>
   <si>
     <t>Size</t>
+  </si>
+  <si>
+    <t>SampleType</t>
+  </si>
+  <si>
+    <t>QuantWeight</t>
+  </si>
+  <si>
+    <t>TotalWeight</t>
+  </si>
+  <si>
+    <t>10/.6</t>
+  </si>
+  <si>
+    <t>FL21/0653-2</t>
+  </si>
+  <si>
+    <t>Paper</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -240,9 +259,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -528,7 +550,7 @@
   <dimension ref="A1:O66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="L56" sqref="L56:M56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -540,41 +562,48 @@
     <col min="6" max="6" width="50" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" t="s">
         <v>35</v>
       </c>
-      <c r="B1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>36</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>37</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>38</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>39</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>40</v>
       </c>
-      <c r="H1" t="s">
-        <v>41</v>
-      </c>
       <c r="I1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J1" t="s">
         <v>50</v>
       </c>
-      <c r="J1" t="s">
-        <v>51</v>
-      </c>
       <c r="K1" t="s">
+        <v>57</v>
+      </c>
+      <c r="L1" t="s">
         <v>59</v>
+      </c>
+      <c r="M1" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
@@ -602,17 +631,21 @@
       <c r="H2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="1">
-        <v>1</v>
-      </c>
-      <c r="J2" s="1">
-        <v>1</v>
+      <c r="I2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
+        <v>56</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
     </row>
@@ -641,17 +674,21 @@
       <c r="H3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="1">
-        <v>1</v>
-      </c>
-      <c r="J3" s="1">
-        <v>1</v>
+      <c r="I3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
+        <v>56</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
     </row>
@@ -680,17 +717,21 @@
       <c r="H4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="1">
-        <v>1</v>
-      </c>
-      <c r="J4" s="1">
-        <v>1</v>
+      <c r="I4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
+        <v>56</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
     </row>
@@ -719,17 +760,21 @@
       <c r="H5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="1">
-        <v>1</v>
-      </c>
-      <c r="J5" s="1">
-        <v>1</v>
+      <c r="I5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
+        <v>56</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
     </row>
@@ -758,17 +803,21 @@
       <c r="H6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="1">
-        <v>1</v>
-      </c>
-      <c r="J6" s="1">
-        <v>1</v>
+      <c r="I6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
+        <v>56</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
     </row>
@@ -797,17 +846,21 @@
       <c r="H7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I7" s="1">
-        <v>1</v>
-      </c>
-      <c r="J7" s="1">
-        <v>1</v>
+      <c r="I7" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
+        <v>56</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
     </row>
@@ -836,17 +889,21 @@
       <c r="H8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I8" s="1">
-        <v>1</v>
-      </c>
-      <c r="J8" s="1">
-        <v>1</v>
+      <c r="I8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
+        <v>56</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
     </row>
@@ -875,17 +932,21 @@
       <c r="H9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I9" s="1">
-        <v>1</v>
-      </c>
-      <c r="J9" s="1">
-        <v>1</v>
+      <c r="I9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
+        <v>56</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
     </row>
@@ -914,17 +975,21 @@
       <c r="H10" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I10" s="1">
-        <v>1</v>
-      </c>
-      <c r="J10" s="1">
-        <v>1</v>
+      <c r="I10" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
+        <v>56</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
     </row>
@@ -933,7 +998,7 @@
         <v>13</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C11" s="1">
         <v>12</v>
@@ -953,17 +1018,21 @@
       <c r="H11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I11" s="1">
-        <v>1</v>
-      </c>
-      <c r="J11" s="1">
-        <v>1</v>
+      <c r="I11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
+        <v>56</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
     </row>
@@ -972,7 +1041,7 @@
         <v>15</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C12" s="1">
         <v>13</v>
@@ -992,17 +1061,21 @@
       <c r="H12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I12" s="1">
-        <v>1</v>
-      </c>
-      <c r="J12" s="1">
-        <v>1</v>
+      <c r="I12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
+        <v>56</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
     </row>
@@ -1031,26 +1104,30 @@
       <c r="H13" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I13" s="1">
-        <v>1</v>
-      </c>
-      <c r="J13" s="1">
-        <v>1</v>
+      <c r="I13" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
+        <v>56</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C14" s="1">
         <v>14</v>
@@ -1068,10 +1145,10 @@
         <v>2111080013</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="I14" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J14" s="1">
         <v>2.5</v>
@@ -1079,8 +1156,12 @@
       <c r="K14" s="1">
         <v>10</v>
       </c>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
+      <c r="L14" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
     </row>
@@ -1109,26 +1190,30 @@
       <c r="H15" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I15" s="1">
-        <v>1</v>
-      </c>
-      <c r="J15" s="1">
-        <v>1</v>
+      <c r="I15" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
+        <v>56</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C16" s="1">
         <v>15</v>
@@ -1149,7 +1234,7 @@
         <v>14</v>
       </c>
       <c r="I16" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J16" s="1">
         <v>2.5</v>
@@ -1157,8 +1242,12 @@
       <c r="K16" s="1">
         <v>10</v>
       </c>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
+      <c r="L16" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
     </row>
@@ -1187,17 +1276,21 @@
       <c r="H17" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I17" s="1">
-        <v>1</v>
-      </c>
-      <c r="J17" s="1">
-        <v>1</v>
+      <c r="I17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
+        <v>56</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
     </row>
@@ -1206,7 +1299,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C18" s="1">
         <v>16</v>
@@ -1235,8 +1328,12 @@
       <c r="K18" s="1">
         <v>10</v>
       </c>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
+      <c r="L18" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
     </row>
@@ -1265,26 +1362,30 @@
       <c r="H19" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I19" s="1">
-        <v>1</v>
-      </c>
-      <c r="J19" s="1">
-        <v>1</v>
+      <c r="I19" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
+        <v>56</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C20" s="1">
         <v>17</v>
@@ -1305,7 +1406,7 @@
         <v>14</v>
       </c>
       <c r="I20" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J20" s="1">
         <v>2.5</v>
@@ -1313,8 +1414,12 @@
       <c r="K20" s="1">
         <v>10</v>
       </c>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
+      <c r="L20" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
     </row>
@@ -1343,17 +1448,21 @@
       <c r="H21" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I21" s="1">
-        <v>1</v>
-      </c>
-      <c r="J21" s="1">
-        <v>1</v>
+      <c r="I21" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
+        <v>56</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
     </row>
@@ -1362,7 +1471,7 @@
         <v>17</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C22" s="1">
         <v>18</v>
@@ -1391,8 +1500,12 @@
       <c r="K22" s="1">
         <v>10</v>
       </c>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
+      <c r="L22" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
     </row>
@@ -1421,17 +1534,21 @@
       <c r="H23" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I23" s="1">
-        <v>1</v>
-      </c>
-      <c r="J23" s="1">
-        <v>1</v>
+      <c r="I23" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
+        <v>56</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
     </row>
@@ -1440,7 +1557,7 @@
         <v>18</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C24" s="1">
         <v>19</v>
@@ -1469,8 +1586,12 @@
       <c r="K24" s="1">
         <v>6</v>
       </c>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
+      <c r="L24" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
     </row>
@@ -1499,17 +1620,21 @@
       <c r="H25" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I25" s="1">
-        <v>1</v>
-      </c>
-      <c r="J25" s="1">
-        <v>1</v>
+      <c r="I25" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
+        <v>56</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
     </row>
@@ -1518,7 +1643,7 @@
         <v>19</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C26" s="1">
         <v>20</v>
@@ -1547,8 +1672,12 @@
       <c r="K26" s="1">
         <v>10</v>
       </c>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
+      <c r="L26" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
     </row>
@@ -1577,17 +1706,21 @@
       <c r="H27" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I27" s="1">
-        <v>1</v>
-      </c>
-      <c r="J27" s="1">
-        <v>1</v>
+      <c r="I27" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
+        <v>56</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
     </row>
@@ -1596,7 +1729,7 @@
         <v>20</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C28" s="1">
         <v>21</v>
@@ -1622,11 +1755,15 @@
       <c r="J28" s="1">
         <v>1</v>
       </c>
-      <c r="K28" s="1">
-        <v>10</v>
-      </c>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
+      <c r="K28" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="L28" s="2">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="M28" s="1">
+        <v>167.6</v>
+      </c>
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
     </row>
@@ -1655,17 +1792,21 @@
       <c r="H29" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I29" s="1">
-        <v>1</v>
-      </c>
-      <c r="J29" s="1">
-        <v>1</v>
+      <c r="I29" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
+        <v>56</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
     </row>
@@ -1674,7 +1815,7 @@
         <v>21</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C30" s="1">
         <v>22</v>
@@ -1703,8 +1844,12 @@
       <c r="K30" s="1">
         <v>10</v>
       </c>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
+      <c r="L30" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M30" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="N30" s="1"/>
       <c r="O30" s="1"/>
     </row>
@@ -1733,17 +1878,21 @@
       <c r="H31" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I31" s="1">
-        <v>1</v>
-      </c>
-      <c r="J31" s="1">
-        <v>1</v>
+      <c r="I31" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
+        <v>56</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
     </row>
@@ -1752,7 +1901,7 @@
         <v>22</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C32" s="1">
         <v>23</v>
@@ -1781,8 +1930,12 @@
       <c r="K32" s="1">
         <v>10</v>
       </c>
-      <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
+      <c r="L32" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M32" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="N32" s="1"/>
       <c r="O32" s="1"/>
     </row>
@@ -1811,17 +1964,21 @@
       <c r="H33" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I33" s="1">
-        <v>1</v>
-      </c>
-      <c r="J33" s="1">
-        <v>1</v>
+      <c r="I33" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
+        <v>56</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="N33" s="1"/>
       <c r="O33" s="1"/>
     </row>
@@ -1830,7 +1987,7 @@
         <v>23</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C34" s="1">
         <v>24</v>
@@ -1859,8 +2016,12 @@
       <c r="K34" s="1">
         <v>10</v>
       </c>
-      <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
+      <c r="L34" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M34" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
     </row>
@@ -1889,17 +2050,21 @@
       <c r="H35" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I35" s="1">
-        <v>1</v>
-      </c>
-      <c r="J35" s="1">
-        <v>1</v>
+      <c r="I35" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
+        <v>56</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="M35" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="N35" s="1"/>
       <c r="O35" s="1"/>
     </row>
@@ -1908,7 +2073,7 @@
         <v>24</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C36" s="1">
         <v>25</v>
@@ -1937,8 +2102,12 @@
       <c r="K36" s="1">
         <v>10</v>
       </c>
-      <c r="L36" s="1"/>
-      <c r="M36" s="1"/>
+      <c r="L36" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M36" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="N36" s="1"/>
       <c r="O36" s="1"/>
     </row>
@@ -1967,17 +2136,21 @@
       <c r="H37" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I37" s="1">
-        <v>1</v>
-      </c>
-      <c r="J37" s="1">
-        <v>1</v>
+      <c r="I37" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="L37" s="1"/>
-      <c r="M37" s="1"/>
+        <v>56</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="M37" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="N37" s="1"/>
       <c r="O37" s="1"/>
     </row>
@@ -1986,7 +2159,7 @@
         <v>25</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C38" s="1">
         <v>26</v>
@@ -2012,11 +2185,15 @@
       <c r="J38" s="1">
         <v>2.5</v>
       </c>
-      <c r="K38" s="1">
+      <c r="K38" s="2">
         <v>10</v>
       </c>
-      <c r="L38" s="1"/>
-      <c r="M38" s="1"/>
+      <c r="L38" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M38" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="N38" s="1"/>
       <c r="O38" s="1"/>
     </row>
@@ -2045,17 +2222,21 @@
       <c r="H39" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I39" s="1">
-        <v>1</v>
-      </c>
-      <c r="J39" s="1">
-        <v>1</v>
+      <c r="I39" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="L39" s="1"/>
-      <c r="M39" s="1"/>
+        <v>56</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="M39" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="N39" s="1"/>
       <c r="O39" s="1"/>
     </row>
@@ -2064,7 +2245,7 @@
         <v>26</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C40" s="1">
         <v>27</v>
@@ -2093,8 +2274,12 @@
       <c r="K40" s="1">
         <v>10</v>
       </c>
-      <c r="L40" s="1"/>
-      <c r="M40" s="1"/>
+      <c r="L40" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M40" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="N40" s="1"/>
       <c r="O40" s="1"/>
     </row>
@@ -2123,17 +2308,21 @@
       <c r="H41" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I41" s="1">
-        <v>1</v>
-      </c>
-      <c r="J41" s="1">
-        <v>1</v>
+      <c r="I41" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="L41" s="1"/>
-      <c r="M41" s="1"/>
+        <v>56</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="M41" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="N41" s="1"/>
       <c r="O41" s="1"/>
     </row>
@@ -2142,7 +2331,7 @@
         <v>27</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C42" s="1">
         <v>28</v>
@@ -2169,10 +2358,14 @@
         <v>1</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="L42" s="1"/>
-      <c r="M42" s="1"/>
+        <v>56</v>
+      </c>
+      <c r="L42" s="1">
+        <v>10</v>
+      </c>
+      <c r="M42" s="1">
+        <v>83.8</v>
+      </c>
       <c r="N42" s="1"/>
       <c r="O42" s="1"/>
     </row>
@@ -2201,17 +2394,21 @@
       <c r="H43" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I43" s="1">
-        <v>1</v>
-      </c>
-      <c r="J43" s="1">
-        <v>1</v>
+      <c r="I43" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="L43" s="1"/>
-      <c r="M43" s="1"/>
+        <v>56</v>
+      </c>
+      <c r="L43" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="M43" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="N43" s="1"/>
       <c r="O43" s="1"/>
     </row>
@@ -2220,7 +2417,7 @@
         <v>28</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C44" s="1">
         <v>29</v>
@@ -2247,10 +2444,14 @@
         <v>1</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="L44" s="1"/>
-      <c r="M44" s="1"/>
+        <v>56</v>
+      </c>
+      <c r="L44" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="M44" s="1">
+        <v>556.20000000000005</v>
+      </c>
       <c r="N44" s="1"/>
       <c r="O44" s="1"/>
     </row>
@@ -2279,17 +2480,21 @@
       <c r="H45" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I45" s="1">
-        <v>1</v>
-      </c>
-      <c r="J45" s="1">
-        <v>1</v>
+      <c r="I45" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="L45" s="1"/>
-      <c r="M45" s="1"/>
+        <v>56</v>
+      </c>
+      <c r="L45" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="M45" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="N45" s="1"/>
       <c r="O45" s="1"/>
     </row>
@@ -2298,7 +2503,7 @@
         <v>29</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C46" s="1">
         <v>30</v>
@@ -2327,8 +2532,12 @@
       <c r="K46" s="1">
         <v>10</v>
       </c>
-      <c r="L46" s="1"/>
-      <c r="M46" s="1"/>
+      <c r="L46" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M46" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="N46" s="1"/>
       <c r="O46" s="1"/>
     </row>
@@ -2357,17 +2566,21 @@
       <c r="H47" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I47" s="1">
-        <v>1</v>
-      </c>
-      <c r="J47" s="1">
-        <v>1</v>
+      <c r="I47" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="L47" s="1"/>
-      <c r="M47" s="1"/>
+        <v>56</v>
+      </c>
+      <c r="L47" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="M47" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="N47" s="1"/>
       <c r="O47" s="1"/>
     </row>
@@ -2376,7 +2589,7 @@
         <v>30</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C48" s="1">
         <v>31</v>
@@ -2405,8 +2618,12 @@
       <c r="K48" s="1">
         <v>10</v>
       </c>
-      <c r="L48" s="1"/>
-      <c r="M48" s="1"/>
+      <c r="L48" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M48" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="N48" s="1"/>
       <c r="O48" s="1"/>
     </row>
@@ -2435,17 +2652,21 @@
       <c r="H49" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I49" s="1">
-        <v>1</v>
-      </c>
-      <c r="J49" s="1">
-        <v>1</v>
+      <c r="I49" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="L49" s="1"/>
-      <c r="M49" s="1"/>
+        <v>56</v>
+      </c>
+      <c r="L49" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="M49" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="N49" s="1"/>
       <c r="O49" s="1"/>
     </row>
@@ -2454,7 +2675,7 @@
         <v>31</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C50" s="1">
         <v>32</v>
@@ -2481,10 +2702,14 @@
         <v>1</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="L50" s="1"/>
-      <c r="M50" s="1"/>
+        <v>56</v>
+      </c>
+      <c r="L50" s="1">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="M50" s="1">
+        <v>110.5</v>
+      </c>
       <c r="N50" s="1"/>
       <c r="O50" s="1"/>
     </row>
@@ -2513,17 +2738,21 @@
       <c r="H51" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I51" s="1">
-        <v>1</v>
-      </c>
-      <c r="J51" s="1">
-        <v>1</v>
+      <c r="I51" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="L51" s="1"/>
-      <c r="M51" s="1"/>
+        <v>56</v>
+      </c>
+      <c r="L51" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="M51" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="N51" s="1"/>
       <c r="O51" s="1"/>
     </row>
@@ -2532,7 +2761,7 @@
         <v>32</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C52" s="1">
         <v>33</v>
@@ -2561,8 +2790,12 @@
       <c r="K52" s="1">
         <v>10</v>
       </c>
-      <c r="L52" s="1"/>
-      <c r="M52" s="1"/>
+      <c r="L52" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M52" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="N52" s="1"/>
       <c r="O52" s="1"/>
     </row>
@@ -2591,17 +2824,21 @@
       <c r="H53" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I53" s="1">
-        <v>1</v>
-      </c>
-      <c r="J53" s="1">
-        <v>1</v>
+      <c r="I53" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="L53" s="1"/>
-      <c r="M53" s="1"/>
+        <v>56</v>
+      </c>
+      <c r="L53" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="M53" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="N53" s="1"/>
       <c r="O53" s="1"/>
     </row>
@@ -2610,7 +2847,7 @@
         <v>33</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C54" s="1">
         <v>34</v>
@@ -2639,8 +2876,12 @@
       <c r="K54" s="1">
         <v>10</v>
       </c>
-      <c r="L54" s="1"/>
-      <c r="M54" s="1"/>
+      <c r="L54" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M54" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="N54" s="1"/>
       <c r="O54" s="1"/>
     </row>
@@ -2669,26 +2910,30 @@
       <c r="H55" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I55" s="1">
-        <v>1</v>
-      </c>
-      <c r="J55" s="1">
-        <v>1</v>
+      <c r="I55" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="K55" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="L55" s="1"/>
-      <c r="M55" s="1"/>
+        <v>56</v>
+      </c>
+      <c r="L55" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="M55" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="N55" s="1"/>
       <c r="O55" s="1"/>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="C56" s="1">
         <v>35</v>
@@ -2717,8 +2962,12 @@
       <c r="K56" s="1">
         <v>10</v>
       </c>
-      <c r="L56" s="1"/>
-      <c r="M56" s="1"/>
+      <c r="L56" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M56" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="N56" s="1"/>
       <c r="O56" s="1"/>
     </row>
@@ -2747,26 +2996,30 @@
       <c r="H57" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I57" s="1">
-        <v>1</v>
-      </c>
-      <c r="J57" s="1">
-        <v>1</v>
+      <c r="I57" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="L57" s="1"/>
-      <c r="M57" s="1"/>
+        <v>56</v>
+      </c>
+      <c r="L57" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="M57" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="N57" s="1"/>
       <c r="O57" s="1"/>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C58" s="1">
         <v>36</v>
@@ -2795,8 +3048,12 @@
       <c r="K58" s="1">
         <v>6</v>
       </c>
-      <c r="L58" s="1"/>
-      <c r="M58" s="1"/>
+      <c r="L58" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M58" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="N58" s="1"/>
       <c r="O58" s="1"/>
     </row>
@@ -2825,26 +3082,30 @@
       <c r="H59" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I59" s="1">
-        <v>1</v>
-      </c>
-      <c r="J59" s="1">
-        <v>1</v>
+      <c r="I59" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="L59" s="1"/>
-      <c r="M59" s="1"/>
+        <v>56</v>
+      </c>
+      <c r="L59" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="M59" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="N59" s="1"/>
       <c r="O59" s="1"/>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C60" s="1">
         <v>37</v>
@@ -2873,8 +3134,12 @@
       <c r="K60" s="1">
         <v>6</v>
       </c>
-      <c r="L60" s="1"/>
-      <c r="M60" s="1"/>
+      <c r="L60" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M60" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="N60" s="1"/>
       <c r="O60" s="1"/>
     </row>
@@ -2903,26 +3168,30 @@
       <c r="H61" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I61" s="1">
-        <v>1</v>
-      </c>
-      <c r="J61" s="1">
-        <v>1</v>
+      <c r="I61" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="L61" s="1"/>
-      <c r="M61" s="1"/>
+        <v>56</v>
+      </c>
+      <c r="L61" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="M61" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="N61" s="1"/>
       <c r="O61" s="1"/>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C62" s="1">
         <v>38</v>
@@ -2951,8 +3220,12 @@
       <c r="K62" s="1">
         <v>10</v>
       </c>
-      <c r="L62" s="1"/>
-      <c r="M62" s="1"/>
+      <c r="L62" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M62" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="N62" s="1"/>
       <c r="O62" s="1"/>
     </row>
@@ -2981,26 +3254,30 @@
       <c r="H63" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I63" s="1">
-        <v>1</v>
-      </c>
-      <c r="J63" s="1">
-        <v>1</v>
+      <c r="I63" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J63" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="L63" s="1"/>
-      <c r="M63" s="1"/>
+        <v>56</v>
+      </c>
+      <c r="L63" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="M63" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="N63" s="1"/>
       <c r="O63" s="1"/>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C64" s="1">
         <v>39</v>
@@ -3029,8 +3306,12 @@
       <c r="K64" s="1">
         <v>10</v>
       </c>
-      <c r="L64" s="1"/>
-      <c r="M64" s="1"/>
+      <c r="L64" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M64" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="N64" s="1"/>
       <c r="O64" s="1"/>
     </row>
@@ -3059,26 +3340,30 @@
       <c r="H65" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I65" s="1">
-        <v>1</v>
-      </c>
-      <c r="J65" s="1">
-        <v>1</v>
+      <c r="I65" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J65" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="K65" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="L65" s="1"/>
-      <c r="M65" s="1"/>
+        <v>56</v>
+      </c>
+      <c r="L65" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="M65" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="N65" s="1"/>
       <c r="O65" s="1"/>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C66" s="1">
         <v>40</v>
@@ -3107,8 +3392,12 @@
       <c r="K66" s="1">
         <v>10</v>
       </c>
-      <c r="L66" s="1"/>
-      <c r="M66" s="1"/>
+      <c r="L66" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M66" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="N66" s="1"/>
       <c r="O66" s="1"/>
     </row>
